--- a/cmn/0500_UIControl/state/doc/UITest01Control.xlsx
+++ b/cmn/0500_UIControl/state/doc/UITest01Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F215FD9-251C-4F68-8195-4A52D009D461}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0018F-7359-4458-ABEB-36F173742427}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>thumbnail</t>
   </si>
@@ -720,8 +720,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 10:25:45
-; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
+    <t>set_event();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 11:35:30
+; * pssgEditor version : 0.8.0.b2014240f914ca599311da9a66f8116e5bc87e25
 psggfile=@@@
 UITest01Control.psgg
 @@@
@@ -738,15 +741,15 @@
 c_contents=1
 force_display_outpin=0
 last_action=@@@
-Initilized
+Edited a state.
 @@@
 target_pathdir=@@@
-/
+/CenterPanel/
 @@@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":777,"y":73}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}},{"Key":"____altnative_state____CenterPanel","Value":{"x":477,"y":75}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1871.64709,"y":88.3921661}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}},{"Key":"S_BUT05","Value":{"x":1621.76477,"y":97.7646942}},{"Key":"S_BUT_C","Value":{"x":692,"y":419}},{"Key":"S_BUT_D","Value":{"x":890,"y":412}},{"Key":"S_BUT_A","Value":{"x":192,"y":418}},{"Key":"S_BUT_B","Value":{"x":414,"y":422}},{"Key":"S_BUT_E","Value":{"x":1163,"y":419}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":777,"y":73}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1871.64709,"y":88.3921661}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}},{"Key":"S_BUT05","Value":{"x":1621.76477,"y":97.7646942}},{"Key":"S_BUT_C","Value":{"x":692,"y":419}},{"Key":"S_BUT_D","Value":{"x":890,"y":412}},{"Key":"S_BUT_A","Value":{"x":192,"y":418}},{"Key":"S_BUT_B","Value":{"x":414,"y":422}},{"Key":"S_BUT_E","Value":{"x":1163,"y":419}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -755,13 +758,15 @@
 external_command=@@@
 @@@
 source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
 @@@
 label_show=0
 label_text=@@@
 test
 @@@
-option_delete_thisstring=0
-option_delete_br_string=0
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=0
 font_name=@@@
 MS UI Gothic
 @@@
@@ -769,7 +774,7 @@
 state_width=140
 state_height=20
 comment_block_height=45
-line_space=-4
+line_space=4
 </t>
   </si>
 </sst>
@@ -2023,8 +2028,38 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
+      <c r="G26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="K26" s="19" t="s">
         <v>34</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="18" customFormat="1">
@@ -2199,7 +2234,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/cmn/0500_UIControl/state/doc/UITest01Control.xlsx
+++ b/cmn/0500_UIControl/state/doc/UITest01Control.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF0018F-7359-4458-ABEB-36F173742427}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF911CE2-3AA9-401A-AF5A-C0FFE9E2AF94}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="128">
   <si>
     <t>thumbnail</t>
   </si>
@@ -509,11 +509,6 @@
     <t>100009</t>
   </si>
   <si>
-    <t>/CenterPanel/
-(477,75)
-パネルとボタン作成</t>
-  </si>
-  <si>
     <t>640,1136</t>
   </si>
   <si>
@@ -548,6 +543,116 @@
   </si>
   <si>
     <t>sprite</t>
+  </si>
+  <si>
+    <t>m_C</t>
+  </si>
+  <si>
+    <t>m_D</t>
+  </si>
+  <si>
+    <t>S_BUT_C</t>
+  </si>
+  <si>
+    <t>S_BUT_D</t>
+  </si>
+  <si>
+    <t>button C 作成</t>
+  </si>
+  <si>
+    <t>button D 作成</t>
+  </si>
+  <si>
+    <t>BUT_C</t>
+  </si>
+  <si>
+    <t>BUT_D</t>
+  </si>
+  <si>
+    <t>S_BUT_B</t>
+  </si>
+  <si>
+    <t>S_BUT_A</t>
+  </si>
+  <si>
+    <t>button B 作成</t>
+  </si>
+  <si>
+    <t>button A 作成</t>
+  </si>
+  <si>
+    <t>BUT_B</t>
+  </si>
+  <si>
+    <t>BUT_A</t>
+  </si>
+  <si>
+    <t>-64,-30</t>
+  </si>
+  <si>
+    <t>m_B</t>
+  </si>
+  <si>
+    <t>m_A</t>
+  </si>
+  <si>
+    <t>100012</t>
+  </si>
+  <si>
+    <t>100013</t>
+  </si>
+  <si>
+    <t>-128,-30</t>
+  </si>
+  <si>
+    <t>S_BUT_E</t>
+  </si>
+  <si>
+    <t>button E 作成</t>
+  </si>
+  <si>
+    <t>128,-30</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>BUT_E</t>
+  </si>
+  <si>
+    <t>m_E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:output=UITest01Control_created.cs_x000D_
+::tempfunc=template-func.txt_x000D_
+:enc=utf-8_x000D_
+::_x000D_
+public partial class UITest01Control : UIControlApi {_x000D_
+_x000D_
+    public void Start()_x000D_
+    {_x000D_
+        Goto(S_START);_x000D_
+    }_x000D_
+    public bool IsEnd()_x000D_
+    {_x000D_
+        return CheckState(S_END);_x000D_
+    }_x000D_
+_x000D_
+    $contents2$_x000D_
+}_x000D_
+</t>
+  </si>
+  <si>
+    <t>set_event();</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>対応アクション</t>
   </si>
   <si>
     <t xml:space="preserve">/*_x000D_
@@ -591,6 +696,10 @@
         &lt;&lt;&lt;?sprite_x000D_
         set_sprite("[[sprite]]");_x000D_
         &gt;&gt;&gt;_x000D_
+_x000D_
+		&lt;&lt;&lt;?action_x000D_
+		set_action([[action]]);_x000D_
+		&gt;&gt;&gt;_x000D_
     }_x000D_
 _x000D_
     [[update]]_x000D_
@@ -622,108 +731,27 @@
 </t>
   </si>
   <si>
-    <t>m_C</t>
-  </si>
-  <si>
-    <t>m_D</t>
-  </si>
-  <si>
-    <t>S_BUT_C</t>
-  </si>
-  <si>
-    <t>S_BUT_D</t>
-  </si>
-  <si>
-    <t>button C 作成</t>
-  </si>
-  <si>
-    <t>button D 作成</t>
-  </si>
-  <si>
-    <t>BUT_C</t>
-  </si>
-  <si>
-    <t>BUT_D</t>
-  </si>
-  <si>
-    <t>S_BUT_B</t>
-  </si>
-  <si>
-    <t>S_BUT_A</t>
-  </si>
-  <si>
-    <t>button B 作成</t>
-  </si>
-  <si>
-    <t>button A 作成</t>
-  </si>
-  <si>
-    <t>BUT_B</t>
-  </si>
-  <si>
-    <t>BUT_A</t>
-  </si>
-  <si>
-    <t>-64,-30</t>
-  </si>
-  <si>
-    <t>m_B</t>
-  </si>
-  <si>
-    <t>m_A</t>
-  </si>
-  <si>
-    <t>100012</t>
-  </si>
-  <si>
-    <t>100013</t>
-  </si>
-  <si>
-    <t>-128,-30</t>
-  </si>
-  <si>
-    <t>S_BUT_E</t>
-  </si>
-  <si>
-    <t>button E 作成</t>
-  </si>
-  <si>
-    <t>128,-30</t>
-  </si>
-  <si>
-    <t>100014</t>
-  </si>
-  <si>
-    <t>BUT_E</t>
-  </si>
-  <si>
-    <t>m_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">:output=UITest01Control_created.cs_x000D_
-::tempfunc=template-func.txt_x000D_
-:enc=utf-8_x000D_
-::_x000D_
-public partial class UITest01Control : UIControlApi {_x000D_
-_x000D_
-    public void Start()_x000D_
-    {_x000D_
-        Goto(S_START);_x000D_
-    }_x000D_
-    public bool IsEnd()_x000D_
-    {_x000D_
-        return CheckState(S_END);_x000D_
-    }_x000D_
-_x000D_
-    $contents2$_x000D_
-}_x000D_
-</t>
-  </si>
-  <si>
-    <t>set_event();</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 11:35:30
+    <t>S_EVENT_PROCESS</t>
+  </si>
+  <si>
+    <t>イベント処理</t>
+  </si>
+  <si>
+    <t>check_event_and_perform();</t>
+  </si>
+  <si>
+    <t>イベント確認と実行</t>
+  </si>
+  <si>
+    <t>/CenterPanel/
+(477,63)
+パネルとボタン作成</t>
+  </si>
+  <si>
+    <t>()=&gt;{ErrorDlg.V.SetError("test");}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/06 14:49:51
 ; * pssgEditor version : 0.8.0.b2014240f914ca599311da9a66f8116e5bc87e25
 psggfile=@@@
 UITest01Control.psgg
@@ -749,7 +777,7 @@
 state_location_list=@@@
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":777,"y":73}},{"Key":"S_SETUP","Value":{"x":231,"y":58}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1871.64709,"y":88.3921661}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}},{"Key":"S_BUT05","Value":{"x":1621.76477,"y":97.7646942}},{"Key":"S_BUT_C","Value":{"x":692,"y":419}},{"Key":"S_BUT_D","Value":{"x":890,"y":412}},{"Key":"S_BUT_A","Value":{"x":192,"y":418}},{"Key":"S_BUT_B","Value":{"x":414,"y":422}},{"Key":"S_BUT_E","Value":{"x":1163,"y":419}}]}]
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":19,"y":61}},{"Key":"S_END","Value":{"x":1091,"y":82}},{"Key":"S_SETUP","Value":{"x":249,"y":61}},{"Key":"S_BUT01","Value":{"x":300,"y":424}},{"Key":"S_BUT02","Value":{"x":488,"y":429}},{"Key":"S_BUT03","Value":{"x":695,"y":421}},{"Key":"S_BUT04","Value":{"x":911,"y":417}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":70,"y":421}},{"Key":"S_EVENT_PROCESS","Value":{"x":724,"y":66}},{"Key":"____altnative_state____CenterPanel","Value":{"x":477,"y":63}}]},{"Key":"\/CenterPanel\/","Value":[{"Key":"S_END","Value":{"x":1871.64709,"y":88.3921661}},{"Key":"S_SETUP","Value":{"x":76,"y":105.333344}},{"Key":"S_BUT01","Value":{"x":574,"y":100}},{"Key":"S_BUT02","Value":{"x":836,"y":100}},{"Key":"S_BUT03","Value":{"x":1098,"y":100}},{"Key":"S_BUT04","Value":{"x":1360,"y":100}},{"Key":"S_CREATE_PANEL_CENTER","Value":{"x":344.6666,"y":105.333336}},{"Key":"S_BUT05","Value":{"x":1621.76477,"y":97.7646942}},{"Key":"S_BUT_C","Value":{"x":692,"y":419}},{"Key":"S_BUT_D","Value":{"x":890,"y":412}},{"Key":"S_BUT_A","Value":{"x":192,"y":418}},{"Key":"S_BUT_B","Value":{"x":414,"y":422}},{"Key":"S_BUT_E","Value":{"x":1163,"y":419}},{"Key":"S_EVENT_PROCESS","Value":{"x":1425,"y":419}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -766,7 +794,7 @@
 @@@
 option_delete_thisstring=1
 option_delete_br_string=1
-option_delete_bracket_string=0
+option_delete_bracket_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -1383,13 +1411,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="18.75"/>
@@ -1397,7 +1425,7 @@
     <col min="1" max="16384" width="15.625" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="144.75" customHeight="1">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="144.75" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1438,8 +1466,11 @@
       <c r="Q1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="8" customFormat="1">
+      <c r="R1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6" t="s">
         <v>36</v>
@@ -1475,22 +1506,25 @@
         <v>72</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="12" customFormat="1" ht="37.5">
+        <v>109</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="37.5">
       <c r="A3" s="9"/>
       <c r="B3" s="9" t="s">
         <v>40</v>
@@ -1526,22 +1560,25 @@
         <v>73</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="16" customFormat="1" ht="18.75" customHeight="1">
+        <v>110</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="16" customFormat="1" ht="18.75" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
         <v>46</v>
@@ -1572,32 +1609,35 @@
         <v>7</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O4" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="18" customFormat="1">
+        <v>121</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="18" customFormat="1">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
     </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="6" spans="1:18" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>48</v>
@@ -1609,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="18" customFormat="1">
+    <row r="7" spans="1:18" s="18" customFormat="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>49</v>
@@ -1618,14 +1658,14 @@
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
     </row>
-    <row r="8" spans="1:17" s="18" customFormat="1">
+    <row r="8" spans="1:18" s="18" customFormat="1">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1">
+    <row r="9" spans="1:18" s="18" customFormat="1">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>50</v>
@@ -1654,22 +1694,22 @@
         <v>74</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="18" customFormat="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="18" customFormat="1">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>53</v>
@@ -1698,22 +1738,22 @@
         <v>11</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="18" customFormat="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="18" customFormat="1">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
         <v>55</v>
@@ -1740,22 +1780,22 @@
         <v>75</v>
       </c>
       <c r="M11" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="O11" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="18" customFormat="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="18" customFormat="1">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>57</v>
@@ -1776,28 +1816,28 @@
         <v>19</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>19</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="18" customFormat="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="18" customFormat="1">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>58</v>
@@ -1839,7 +1879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="18" customFormat="1">
+    <row r="14" spans="1:18" s="18" customFormat="1">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>59</v>
@@ -1881,7 +1921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="18" customFormat="1">
+    <row r="15" spans="1:18" s="18" customFormat="1">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>60</v>
@@ -1905,86 +1945,93 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="18" customFormat="1">
+    <row r="16" spans="1:18" s="18" customFormat="1">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="G16" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="18" customFormat="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="18" customFormat="1">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="M17" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="18" customFormat="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="18" customFormat="1" ht="37.5">
       <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>119</v>
+      </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:17" s="18" customFormat="1">
+      <c r="L18" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="18" customFormat="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:17" s="18" customFormat="1">
+    <row r="20" spans="1:18" s="18" customFormat="1">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
-    <row r="21" spans="1:17" s="18" customFormat="1">
+    <row r="21" spans="1:18" s="18" customFormat="1">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:17" s="18" customFormat="1" ht="18.75" customHeight="1">
+    <row r="22" spans="1:18" s="18" customFormat="1" ht="18.75" customHeight="1">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>61</v>
@@ -1992,8 +2039,11 @@
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-    </row>
-    <row r="23" spans="1:17" s="18" customFormat="1">
+      <c r="R22" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="18" customFormat="1" ht="37.5">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>62</v>
@@ -2001,8 +2051,11 @@
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:17" s="18" customFormat="1">
+      <c r="R23" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="18" customFormat="1">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>63</v>
@@ -2011,7 +2064,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
     </row>
-    <row r="25" spans="1:17" s="18" customFormat="1">
+    <row r="25" spans="1:18" s="18" customFormat="1">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>64</v>
@@ -2020,7 +2073,7 @@
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:17" s="18" customFormat="1">
+    <row r="26" spans="1:18" s="18" customFormat="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>1</v>
@@ -2029,40 +2082,40 @@
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
       <c r="G26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>34</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="18" customFormat="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="18" customFormat="1">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>65</v>
@@ -2071,7 +2124,7 @@
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
     </row>
-    <row r="28" spans="1:17" s="22" customFormat="1">
+    <row r="28" spans="1:18" s="22" customFormat="1">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>66</v>
@@ -2080,7 +2133,7 @@
       <c r="D28" s="20"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="18.75" customHeight="1">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="18.75" customHeight="1">
       <c r="A29" s="23"/>
       <c r="B29" s="23" t="s">
         <v>67</v>
@@ -2089,41 +2142,41 @@
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="24" customFormat="1"/>
-    <row r="31" spans="1:17" s="24" customFormat="1" ht="75">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="24" customFormat="1"/>
+    <row r="31" spans="1:18" s="24" customFormat="1" ht="75">
       <c r="B31" s="24" t="s">
         <v>68</v>
       </c>
@@ -2137,40 +2190,43 @@
         <v>14</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="J31" s="25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1" ht="18.75" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="R31" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="24" customFormat="1" ht="18.75" customHeight="1">
       <c r="B32" s="24" t="s">
         <v>69</v>
       </c>
@@ -2202,19 +2258,22 @@
         <v>76</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N32" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P32" s="24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q32" s="24" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="R32" s="24" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2234,7 +2293,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2351,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +2370,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
